--- a/medicine/Enfance/Bart_Moeyaert/Bart_Moeyaert.xlsx
+++ b/medicine/Enfance/Bart_Moeyaert/Bart_Moeyaert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bart Peter Boudewijn Moeyaert, né le 9 juin 1964 (59 ans) à Bruges, est un auteur belge néerlandophone.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né le 7e garçon de sa fratrie, et avait ainsi comme parrain le roi Baudouin des Belges, comme veut la tradition[1]. Son deuxième et troisième nom montrent qu'il est un enfant du parrainage Royal. (Peter ou “Pierre” se traduit en « parrain » en français)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né le 7e garçon de sa fratrie, et avait ainsi comme parrain le roi Baudouin des Belges, comme veut la tradition. Son deuxième et troisième nom montrent qu'il est un enfant du parrainage Royal. (Peter ou “Pierre” se traduit en « parrain » en français)
 Il écrit de nombreux albums pour enfants, des romans pour adolescents/adultes, des pièces de théâtre ainsi que des recueils de poésie. Il monte souvent lui-même sur la scène.
 En 2006-2007, il a été poète de ville ("stadsdichter") officiel d’Anvers, la ville flamande où il a vécu pendant plus de trente ans.
-En 2019, il reçoit le prestigieux prix international suédois de littérature jeunesse, le prix commémoratif Astrid-Lindgren[2].
-En 2020, il est à nouveau sélectionné pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur[3], prix international danois. Il a été sélectionné à plusieurs reprises, et a été finaliste en 2002 et 2012[3].
+En 2019, il reçoit le prestigieux prix international suédois de littérature jeunesse, le prix commémoratif Astrid-Lindgren.
+En 2020, il est à nouveau sélectionné pour représenter son pays, la Belgique, pour le Prix Hans-Christian-Andersen, dans la catégorie Auteur, prix international danois. Il a été sélectionné à plusieurs reprises, et a été finaliste en 2002 et 2012.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À mains nues, trad. Anne-Marie de Both-Diez, Le Seuil, 1999.
 Hm, trad. Daniel Cunin, nouvelle publiée dans Littérature en Flandre. 33 auteurs contemporains, Le Castor astral, 2003.
